--- a/service-system/target/classes/static/摩擦系数-2车道.xlsx
+++ b/service-system/target/classes/static/摩擦系数-2车道.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6458A87E-2D60-42BA-8F9C-F5B17835159E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857C2E18-E966-4B65-A000-6F79BA63BABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="563" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="左幅-路面" sheetId="468" r:id="rId1"/>
@@ -600,6 +600,39 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -618,38 +651,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -662,30 +686,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1157,7 +1157,7 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:O1"/>
     </sheetView>
   </sheetViews>
@@ -1173,17 +1173,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
@@ -1194,92 +1194,92 @@
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="29"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="35"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="35"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="35"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="35"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="11" t="s">
         <v>8</v>
       </c>
@@ -1632,14 +1632,14 @@
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="38"/>
-      <c r="F38" s="40" t="s">
+      <c r="E38" s="25"/>
+      <c r="F38" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="41"/>
+      <c r="G38" s="30"/>
       <c r="H38" s="31"/>
       <c r="I38" s="32"/>
     </row>
@@ -1647,84 +1647,99 @@
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="38"/>
-      <c r="F39" s="33" t="s">
+      <c r="E39" s="25"/>
+      <c r="F39" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
     </row>
     <row r="40" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="33" t="s">
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="33" t="s">
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
     </row>
     <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="33" t="s">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
     </row>
     <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
     </row>
     <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="38"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="D44:E44"/>
@@ -1741,21 +1756,6 @@
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E2:F3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.86614173228346458" right="0.78740157480314965" top="0.74803149606299213" bottom="0.86614173228346458" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -1791,17 +1791,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
@@ -1812,92 +1812,92 @@
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="44"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="19"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="48"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="50"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="35"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="48"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
@@ -2250,14 +2250,14 @@
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="53" t="s">
+      <c r="E38" s="43"/>
+      <c r="F38" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="53"/>
+      <c r="G38" s="45"/>
       <c r="H38" s="46"/>
       <c r="I38" s="46"/>
     </row>
@@ -2265,14 +2265,14 @@
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="33" t="s">
+      <c r="E39" s="43"/>
+      <c r="F39" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="33"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="47"/>
       <c r="I39" s="47"/>
     </row>
@@ -2280,69 +2280,84 @@
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="33" t="s">
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="33" t="s">
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
     </row>
     <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="33" t="s">
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
     </row>
     <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
     </row>
     <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="38"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="D44:E44"/>
@@ -2359,21 +2374,6 @@
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E2:F3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.86614173228346458" right="0.78740157480314965" top="0.74803149606299213" bottom="0.82677165354330717" header="0.47244094488188981" footer="0.47244094488188981"/>
@@ -2430,92 +2430,92 @@
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="44"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="19"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="48"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="48"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="48"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="48"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
@@ -2868,14 +2868,14 @@
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="53" t="s">
+      <c r="E38" s="43"/>
+      <c r="F38" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="53"/>
+      <c r="G38" s="45"/>
       <c r="H38" s="46"/>
       <c r="I38" s="46"/>
     </row>
@@ -2883,14 +2883,14 @@
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="33" t="s">
+      <c r="E39" s="43"/>
+      <c r="F39" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="33"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="47"/>
       <c r="I39" s="47"/>
     </row>
@@ -2898,69 +2898,84 @@
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="33" t="s">
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="33" t="s">
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
     </row>
     <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="33" t="s">
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
     </row>
     <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="51" t="s">
+      <c r="D43" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="51"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
     </row>
     <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="51" t="s">
+      <c r="D44" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="D44:E44"/>
@@ -2977,21 +2992,6 @@
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E2:F3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.86614173228346403" right="0.78740157480314998" top="0.74803149606299202" bottom="0.82638888888888895" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -3048,92 +3048,92 @@
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="44"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="19"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="48"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="50"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="48"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="48"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
@@ -3486,14 +3486,14 @@
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="53" t="s">
+      <c r="E38" s="43"/>
+      <c r="F38" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="53"/>
+      <c r="G38" s="45"/>
       <c r="H38" s="46"/>
       <c r="I38" s="46"/>
     </row>
@@ -3501,14 +3501,14 @@
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="33" t="s">
+      <c r="E39" s="43"/>
+      <c r="F39" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="33"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="47"/>
       <c r="I39" s="47"/>
     </row>
@@ -3516,69 +3516,84 @@
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="33" t="s">
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="33" t="s">
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
     </row>
     <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="33" t="s">
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
     </row>
     <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="51" t="s">
+      <c r="D43" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="51"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
     </row>
     <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="51" t="s">
+      <c r="D44" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="D44:E44"/>
@@ -3595,21 +3610,6 @@
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E2:F3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.86614173228346403" right="0.78740157480314998" top="0.74803149606299202" bottom="0.86597222222222203" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -3666,92 +3666,92 @@
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="44"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="19"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="48"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="48"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="48"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="48"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
@@ -4104,14 +4104,14 @@
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="53" t="s">
+      <c r="E38" s="43"/>
+      <c r="F38" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="53"/>
+      <c r="G38" s="45"/>
       <c r="H38" s="46"/>
       <c r="I38" s="46"/>
     </row>
@@ -4119,14 +4119,14 @@
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="33" t="s">
+      <c r="E39" s="43"/>
+      <c r="F39" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="33"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="47"/>
       <c r="I39" s="47"/>
     </row>
@@ -4134,69 +4134,84 @@
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="33" t="s">
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="33" t="s">
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
     </row>
     <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="33" t="s">
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
     </row>
     <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="51" t="s">
+      <c r="D43" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="51"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
     </row>
     <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="51" t="s">
+      <c r="D44" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="D44:E44"/>
@@ -4213,21 +4228,6 @@
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E2:F3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.86614173228346403" right="0.78740157480314998" top="0.74803149606299202" bottom="0.82638888888888895" header="0.47244094488188998" footer="0.47244094488188998"/>
@@ -4246,7 +4246,7 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
@@ -4284,92 +4284,92 @@
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="44"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="19"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="48"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="50"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="48"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="48"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
@@ -4722,14 +4722,14 @@
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="53" t="s">
+      <c r="E38" s="43"/>
+      <c r="F38" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="53"/>
+      <c r="G38" s="45"/>
       <c r="H38" s="46"/>
       <c r="I38" s="46"/>
     </row>
@@ -4737,14 +4737,14 @@
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="33" t="s">
+      <c r="E39" s="43"/>
+      <c r="F39" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="33"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="47"/>
       <c r="I39" s="47"/>
     </row>
@@ -4752,69 +4752,84 @@
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="33" t="s">
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="33" t="s">
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
     </row>
     <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="33" t="s">
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
     </row>
     <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="51" t="s">
+      <c r="D43" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="51"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
     </row>
     <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="51" t="s">
+      <c r="D44" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="D44:E44"/>
@@ -4831,25 +4846,10 @@
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E2:F3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.86614173228346403" right="0.78740157480314998" top="0.74803149606299202" bottom="0.82638888888888895" header="0.47244094488188998" footer="0.47244094488188998"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
     <oddFooter>&amp;C检测：                                                       复核：</oddFooter>
